--- a/data/neut_assays/plate_reader_data/fPitt2postinf_NeutralizationAssay.xlsx
+++ b/data/neut_assays/plate_reader_data/fPitt2postinf_NeutralizationAssay.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="460" windowWidth="27700" windowHeight="17200" activeTab="3"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="27700" windowHeight="16460" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
     <sheet name="K189D" sheetId="1" r:id="rId2"/>
     <sheet name="F193D" sheetId="3" r:id="rId3"/>
     <sheet name="K144E" sheetId="4" r:id="rId4"/>
+    <sheet name="WT2" sheetId="5" r:id="rId5"/>
+    <sheet name="L157D" sheetId="6" r:id="rId6"/>
+    <sheet name="R220D" sheetId="7" r:id="rId7"/>
+    <sheet name="F159G" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -385,8 +389,364 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="79">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -572,6 +932,57 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>9:48:30 AM</t>
+  </si>
+  <si>
+    <t>FHCRC\reguia</t>
+  </si>
+  <si>
+    <t>5/24/2019 9:49:27 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 24.9 °C</t>
+  </si>
+  <si>
+    <t>5/24/2019 9:50:23 AM</t>
+  </si>
+  <si>
+    <t>9:46:13 AM</t>
+  </si>
+  <si>
+    <t>5/24/2019 9:47:16 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 24.8 °C</t>
+  </si>
+  <si>
+    <t>5/24/2019 9:48:12 AM</t>
+  </si>
+  <si>
+    <t>9:43:51 AM</t>
+  </si>
+  <si>
+    <t>5/24/2019 9:44:48 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 24.7 °C</t>
+  </si>
+  <si>
+    <t>5/24/2019 9:45:44 AM</t>
+  </si>
+  <si>
+    <t>9:41:34 AM</t>
+  </si>
+  <si>
+    <t>5/24/2019 9:42:37 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 24.5 °C</t>
+  </si>
+  <si>
+    <t>5/24/2019 9:43:33 AM</t>
   </si>
 </sst>
 </file>
@@ -2590,7 +3001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
@@ -3115,4 +3526,2416 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>107</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>12639</v>
+      </c>
+      <c r="C32">
+        <v>12811</v>
+      </c>
+      <c r="D32">
+        <v>13166</v>
+      </c>
+      <c r="E32">
+        <v>13508</v>
+      </c>
+      <c r="F32">
+        <v>13715</v>
+      </c>
+      <c r="G32">
+        <v>13724</v>
+      </c>
+      <c r="H32">
+        <v>13748</v>
+      </c>
+      <c r="I32">
+        <v>13677</v>
+      </c>
+      <c r="J32">
+        <v>13363</v>
+      </c>
+      <c r="K32">
+        <v>12980</v>
+      </c>
+      <c r="L32">
+        <v>12604</v>
+      </c>
+      <c r="M32">
+        <v>12175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>18934</v>
+      </c>
+      <c r="C33">
+        <v>18946</v>
+      </c>
+      <c r="D33">
+        <v>19232</v>
+      </c>
+      <c r="E33">
+        <v>19389</v>
+      </c>
+      <c r="F33">
+        <v>19646</v>
+      </c>
+      <c r="G33">
+        <v>19674</v>
+      </c>
+      <c r="H33">
+        <v>19477</v>
+      </c>
+      <c r="I33">
+        <v>19535</v>
+      </c>
+      <c r="J33">
+        <v>19173</v>
+      </c>
+      <c r="K33">
+        <v>19065</v>
+      </c>
+      <c r="L33">
+        <v>18593</v>
+      </c>
+      <c r="M33">
+        <v>18354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>35226</v>
+      </c>
+      <c r="C34">
+        <v>37806</v>
+      </c>
+      <c r="D34">
+        <v>35893</v>
+      </c>
+      <c r="E34">
+        <v>35737</v>
+      </c>
+      <c r="F34">
+        <v>38894</v>
+      </c>
+      <c r="G34">
+        <v>36654</v>
+      </c>
+      <c r="H34">
+        <v>37124</v>
+      </c>
+      <c r="I34">
+        <v>36926</v>
+      </c>
+      <c r="J34">
+        <v>36425</v>
+      </c>
+      <c r="K34">
+        <v>38456</v>
+      </c>
+      <c r="L34">
+        <v>33272</v>
+      </c>
+      <c r="M34">
+        <v>33841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>37214</v>
+      </c>
+      <c r="C35">
+        <v>34868</v>
+      </c>
+      <c r="D35">
+        <v>36017</v>
+      </c>
+      <c r="E35">
+        <v>36371</v>
+      </c>
+      <c r="F35">
+        <v>34900</v>
+      </c>
+      <c r="G35">
+        <v>30808</v>
+      </c>
+      <c r="H35">
+        <v>25292</v>
+      </c>
+      <c r="I35">
+        <v>21332</v>
+      </c>
+      <c r="J35">
+        <v>19086</v>
+      </c>
+      <c r="K35">
+        <v>19574</v>
+      </c>
+      <c r="L35">
+        <v>21392</v>
+      </c>
+      <c r="M35">
+        <v>26823</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>34376</v>
+      </c>
+      <c r="C36">
+        <v>37169</v>
+      </c>
+      <c r="D36">
+        <v>35668</v>
+      </c>
+      <c r="E36">
+        <v>34336</v>
+      </c>
+      <c r="F36">
+        <v>34186</v>
+      </c>
+      <c r="G36">
+        <v>28688</v>
+      </c>
+      <c r="H36">
+        <v>26732</v>
+      </c>
+      <c r="I36">
+        <v>21131</v>
+      </c>
+      <c r="J36">
+        <v>19212</v>
+      </c>
+      <c r="K36">
+        <v>19752</v>
+      </c>
+      <c r="L36">
+        <v>21391</v>
+      </c>
+      <c r="M36">
+        <v>26550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>35562</v>
+      </c>
+      <c r="C37">
+        <v>34537</v>
+      </c>
+      <c r="D37">
+        <v>33456</v>
+      </c>
+      <c r="E37">
+        <v>36156</v>
+      </c>
+      <c r="F37">
+        <v>33717</v>
+      </c>
+      <c r="G37">
+        <v>31487</v>
+      </c>
+      <c r="H37">
+        <v>26323</v>
+      </c>
+      <c r="I37">
+        <v>21066</v>
+      </c>
+      <c r="J37">
+        <v>19054</v>
+      </c>
+      <c r="K37">
+        <v>19579</v>
+      </c>
+      <c r="L37">
+        <v>21385</v>
+      </c>
+      <c r="M37">
+        <v>26232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>34381</v>
+      </c>
+      <c r="C38">
+        <v>33671</v>
+      </c>
+      <c r="D38">
+        <v>34424</v>
+      </c>
+      <c r="E38">
+        <v>32859</v>
+      </c>
+      <c r="F38">
+        <v>34996</v>
+      </c>
+      <c r="G38">
+        <v>35609</v>
+      </c>
+      <c r="H38">
+        <v>36131</v>
+      </c>
+      <c r="I38">
+        <v>36812</v>
+      </c>
+      <c r="J38">
+        <v>35502</v>
+      </c>
+      <c r="K38">
+        <v>36197</v>
+      </c>
+      <c r="L38">
+        <v>34265</v>
+      </c>
+      <c r="M38">
+        <v>32458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>11475</v>
+      </c>
+      <c r="C39">
+        <v>11740</v>
+      </c>
+      <c r="D39">
+        <v>12159</v>
+      </c>
+      <c r="E39">
+        <v>12357</v>
+      </c>
+      <c r="F39">
+        <v>12710</v>
+      </c>
+      <c r="G39">
+        <v>12795</v>
+      </c>
+      <c r="H39">
+        <v>12769</v>
+      </c>
+      <c r="I39">
+        <v>12841</v>
+      </c>
+      <c r="J39">
+        <v>12408</v>
+      </c>
+      <c r="K39">
+        <v>12166</v>
+      </c>
+      <c r="L39">
+        <v>11872</v>
+      </c>
+      <c r="M39">
+        <v>11417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>7578</v>
+      </c>
+      <c r="C32">
+        <v>7840</v>
+      </c>
+      <c r="D32">
+        <v>7924</v>
+      </c>
+      <c r="E32">
+        <v>8094</v>
+      </c>
+      <c r="F32">
+        <v>8448</v>
+      </c>
+      <c r="G32">
+        <v>8475</v>
+      </c>
+      <c r="H32">
+        <v>8271</v>
+      </c>
+      <c r="I32">
+        <v>8172</v>
+      </c>
+      <c r="J32">
+        <v>8191</v>
+      </c>
+      <c r="K32">
+        <v>8033</v>
+      </c>
+      <c r="L32">
+        <v>7886</v>
+      </c>
+      <c r="M32">
+        <v>7491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>10133</v>
+      </c>
+      <c r="C33">
+        <v>10299</v>
+      </c>
+      <c r="D33">
+        <v>10529</v>
+      </c>
+      <c r="E33">
+        <v>10440</v>
+      </c>
+      <c r="F33">
+        <v>10654</v>
+      </c>
+      <c r="G33">
+        <v>10781</v>
+      </c>
+      <c r="H33">
+        <v>10580</v>
+      </c>
+      <c r="I33">
+        <v>10591</v>
+      </c>
+      <c r="J33">
+        <v>10500</v>
+      </c>
+      <c r="K33">
+        <v>10321</v>
+      </c>
+      <c r="L33">
+        <v>10224</v>
+      </c>
+      <c r="M33">
+        <v>10167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>30168</v>
+      </c>
+      <c r="C34">
+        <v>33993</v>
+      </c>
+      <c r="D34">
+        <v>33780</v>
+      </c>
+      <c r="E34">
+        <v>36304</v>
+      </c>
+      <c r="F34">
+        <v>36180</v>
+      </c>
+      <c r="G34">
+        <v>38465</v>
+      </c>
+      <c r="H34">
+        <v>36281</v>
+      </c>
+      <c r="I34">
+        <v>39475</v>
+      </c>
+      <c r="J34">
+        <v>37365</v>
+      </c>
+      <c r="K34">
+        <v>37899</v>
+      </c>
+      <c r="L34">
+        <v>36847</v>
+      </c>
+      <c r="M34">
+        <v>33056</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>29756</v>
+      </c>
+      <c r="C35">
+        <v>33318</v>
+      </c>
+      <c r="D35">
+        <v>31071</v>
+      </c>
+      <c r="E35">
+        <v>33557</v>
+      </c>
+      <c r="F35">
+        <v>33528</v>
+      </c>
+      <c r="G35">
+        <v>31064</v>
+      </c>
+      <c r="H35">
+        <v>22251</v>
+      </c>
+      <c r="I35">
+        <v>16027</v>
+      </c>
+      <c r="J35">
+        <v>11234</v>
+      </c>
+      <c r="K35">
+        <v>10881</v>
+      </c>
+      <c r="L35">
+        <v>11812</v>
+      </c>
+      <c r="M35">
+        <v>15049</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>28813</v>
+      </c>
+      <c r="C36">
+        <v>32479</v>
+      </c>
+      <c r="D36">
+        <v>32036</v>
+      </c>
+      <c r="E36">
+        <v>34511</v>
+      </c>
+      <c r="F36">
+        <v>34108</v>
+      </c>
+      <c r="G36">
+        <v>32160</v>
+      </c>
+      <c r="H36">
+        <v>25690</v>
+      </c>
+      <c r="I36">
+        <v>14762</v>
+      </c>
+      <c r="J36">
+        <v>11050</v>
+      </c>
+      <c r="K36">
+        <v>10575</v>
+      </c>
+      <c r="L36">
+        <v>11806</v>
+      </c>
+      <c r="M36">
+        <v>14680</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>30652</v>
+      </c>
+      <c r="C37">
+        <v>32763</v>
+      </c>
+      <c r="D37">
+        <v>33474</v>
+      </c>
+      <c r="E37">
+        <v>33078</v>
+      </c>
+      <c r="F37">
+        <v>34190</v>
+      </c>
+      <c r="G37">
+        <v>29981</v>
+      </c>
+      <c r="H37">
+        <v>23567</v>
+      </c>
+      <c r="I37">
+        <v>14899</v>
+      </c>
+      <c r="J37">
+        <v>10901</v>
+      </c>
+      <c r="K37">
+        <v>10659</v>
+      </c>
+      <c r="L37">
+        <v>12004</v>
+      </c>
+      <c r="M37">
+        <v>14713</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>30226</v>
+      </c>
+      <c r="C38">
+        <v>31605</v>
+      </c>
+      <c r="D38">
+        <v>32818</v>
+      </c>
+      <c r="E38">
+        <v>33397</v>
+      </c>
+      <c r="F38">
+        <v>33553</v>
+      </c>
+      <c r="G38">
+        <v>35722</v>
+      </c>
+      <c r="H38">
+        <v>35927</v>
+      </c>
+      <c r="I38">
+        <v>33624</v>
+      </c>
+      <c r="J38">
+        <v>36175</v>
+      </c>
+      <c r="K38">
+        <v>33441</v>
+      </c>
+      <c r="L38">
+        <v>32032</v>
+      </c>
+      <c r="M38">
+        <v>30786</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>6985</v>
+      </c>
+      <c r="C39">
+        <v>7462</v>
+      </c>
+      <c r="D39">
+        <v>7288</v>
+      </c>
+      <c r="E39">
+        <v>7484</v>
+      </c>
+      <c r="F39">
+        <v>7769</v>
+      </c>
+      <c r="G39">
+        <v>7838</v>
+      </c>
+      <c r="H39">
+        <v>7781</v>
+      </c>
+      <c r="I39">
+        <v>7646</v>
+      </c>
+      <c r="J39">
+        <v>7545</v>
+      </c>
+      <c r="K39">
+        <v>7431</v>
+      </c>
+      <c r="L39">
+        <v>7140</v>
+      </c>
+      <c r="M39">
+        <v>6931</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>107</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>12230</v>
+      </c>
+      <c r="C32">
+        <v>12464</v>
+      </c>
+      <c r="D32">
+        <v>13477</v>
+      </c>
+      <c r="E32">
+        <v>13679</v>
+      </c>
+      <c r="F32">
+        <v>13922</v>
+      </c>
+      <c r="G32">
+        <v>13889</v>
+      </c>
+      <c r="H32">
+        <v>13954</v>
+      </c>
+      <c r="I32">
+        <v>13335</v>
+      </c>
+      <c r="J32">
+        <v>13747</v>
+      </c>
+      <c r="K32">
+        <v>13090</v>
+      </c>
+      <c r="L32">
+        <v>12771</v>
+      </c>
+      <c r="M32">
+        <v>12310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>17730</v>
+      </c>
+      <c r="C33">
+        <v>18004</v>
+      </c>
+      <c r="D33">
+        <v>18332</v>
+      </c>
+      <c r="E33">
+        <v>18471</v>
+      </c>
+      <c r="F33">
+        <v>18705</v>
+      </c>
+      <c r="G33">
+        <v>19002</v>
+      </c>
+      <c r="H33">
+        <v>18629</v>
+      </c>
+      <c r="I33">
+        <v>18760</v>
+      </c>
+      <c r="J33">
+        <v>18606</v>
+      </c>
+      <c r="K33">
+        <v>18373</v>
+      </c>
+      <c r="L33">
+        <v>17867</v>
+      </c>
+      <c r="M33">
+        <v>17817</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>35280</v>
+      </c>
+      <c r="C34">
+        <v>41145</v>
+      </c>
+      <c r="D34">
+        <v>33783</v>
+      </c>
+      <c r="E34">
+        <v>38959</v>
+      </c>
+      <c r="F34">
+        <v>38642</v>
+      </c>
+      <c r="G34">
+        <v>39391</v>
+      </c>
+      <c r="H34">
+        <v>38348</v>
+      </c>
+      <c r="I34">
+        <v>36210</v>
+      </c>
+      <c r="J34">
+        <v>34427</v>
+      </c>
+      <c r="K34">
+        <v>37573</v>
+      </c>
+      <c r="L34">
+        <v>38531</v>
+      </c>
+      <c r="M34">
+        <v>36220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>33159</v>
+      </c>
+      <c r="C35">
+        <v>34379</v>
+      </c>
+      <c r="D35">
+        <v>32768</v>
+      </c>
+      <c r="E35">
+        <v>29334</v>
+      </c>
+      <c r="F35">
+        <v>24730</v>
+      </c>
+      <c r="G35">
+        <v>19332</v>
+      </c>
+      <c r="H35">
+        <v>18525</v>
+      </c>
+      <c r="I35">
+        <v>18158</v>
+      </c>
+      <c r="J35">
+        <v>18223</v>
+      </c>
+      <c r="K35">
+        <v>18711</v>
+      </c>
+      <c r="L35">
+        <v>20698</v>
+      </c>
+      <c r="M35">
+        <v>25325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>33451</v>
+      </c>
+      <c r="C36">
+        <v>33536</v>
+      </c>
+      <c r="D36">
+        <v>28324</v>
+      </c>
+      <c r="E36">
+        <v>29054</v>
+      </c>
+      <c r="F36">
+        <v>24263</v>
+      </c>
+      <c r="G36">
+        <v>19746</v>
+      </c>
+      <c r="H36">
+        <v>18059</v>
+      </c>
+      <c r="I36">
+        <v>17829</v>
+      </c>
+      <c r="J36">
+        <v>18208</v>
+      </c>
+      <c r="K36">
+        <v>18473</v>
+      </c>
+      <c r="L36">
+        <v>20402</v>
+      </c>
+      <c r="M36">
+        <v>25093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>32997</v>
+      </c>
+      <c r="C37">
+        <v>34060</v>
+      </c>
+      <c r="D37">
+        <v>30531</v>
+      </c>
+      <c r="E37">
+        <v>29312</v>
+      </c>
+      <c r="F37">
+        <v>23098</v>
+      </c>
+      <c r="G37">
+        <v>19038</v>
+      </c>
+      <c r="H37">
+        <v>17800</v>
+      </c>
+      <c r="I37">
+        <v>17497</v>
+      </c>
+      <c r="J37">
+        <v>17564</v>
+      </c>
+      <c r="K37">
+        <v>18401</v>
+      </c>
+      <c r="L37">
+        <v>20210</v>
+      </c>
+      <c r="M37">
+        <v>24968</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>34989</v>
+      </c>
+      <c r="C38">
+        <v>34348</v>
+      </c>
+      <c r="D38">
+        <v>34598</v>
+      </c>
+      <c r="E38">
+        <v>34641</v>
+      </c>
+      <c r="F38">
+        <v>35314</v>
+      </c>
+      <c r="G38">
+        <v>33898</v>
+      </c>
+      <c r="H38">
+        <v>34103</v>
+      </c>
+      <c r="I38">
+        <v>34158</v>
+      </c>
+      <c r="J38">
+        <v>34514</v>
+      </c>
+      <c r="K38">
+        <v>33622</v>
+      </c>
+      <c r="L38">
+        <v>33177</v>
+      </c>
+      <c r="M38">
+        <v>33153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>11760</v>
+      </c>
+      <c r="C39">
+        <v>11937</v>
+      </c>
+      <c r="D39">
+        <v>12146</v>
+      </c>
+      <c r="E39">
+        <v>12369</v>
+      </c>
+      <c r="F39">
+        <v>12711</v>
+      </c>
+      <c r="G39">
+        <v>12825</v>
+      </c>
+      <c r="H39">
+        <v>12859</v>
+      </c>
+      <c r="I39">
+        <v>12596</v>
+      </c>
+      <c r="J39">
+        <v>12529</v>
+      </c>
+      <c r="K39">
+        <v>12293</v>
+      </c>
+      <c r="L39">
+        <v>11662</v>
+      </c>
+      <c r="M39">
+        <v>11418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>7143</v>
+      </c>
+      <c r="C32">
+        <v>7599</v>
+      </c>
+      <c r="D32">
+        <v>7790</v>
+      </c>
+      <c r="E32">
+        <v>8058</v>
+      </c>
+      <c r="F32">
+        <v>8115</v>
+      </c>
+      <c r="G32">
+        <v>7979</v>
+      </c>
+      <c r="H32">
+        <v>8185</v>
+      </c>
+      <c r="I32">
+        <v>8157</v>
+      </c>
+      <c r="J32">
+        <v>8013</v>
+      </c>
+      <c r="K32">
+        <v>7769</v>
+      </c>
+      <c r="L32">
+        <v>7514</v>
+      </c>
+      <c r="M32">
+        <v>7157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>9888</v>
+      </c>
+      <c r="C33">
+        <v>9818</v>
+      </c>
+      <c r="D33">
+        <v>10270</v>
+      </c>
+      <c r="E33">
+        <v>10453</v>
+      </c>
+      <c r="F33">
+        <v>10442</v>
+      </c>
+      <c r="G33">
+        <v>10560</v>
+      </c>
+      <c r="H33">
+        <v>10502</v>
+      </c>
+      <c r="I33">
+        <v>10483</v>
+      </c>
+      <c r="J33">
+        <v>10428</v>
+      </c>
+      <c r="K33">
+        <v>10150</v>
+      </c>
+      <c r="L33">
+        <v>10042</v>
+      </c>
+      <c r="M33">
+        <v>9894</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>26967</v>
+      </c>
+      <c r="C34">
+        <v>27764</v>
+      </c>
+      <c r="D34">
+        <v>27807</v>
+      </c>
+      <c r="E34">
+        <v>33206</v>
+      </c>
+      <c r="F34">
+        <v>29320</v>
+      </c>
+      <c r="G34">
+        <v>35988</v>
+      </c>
+      <c r="H34">
+        <v>31078</v>
+      </c>
+      <c r="I34">
+        <v>28553</v>
+      </c>
+      <c r="J34">
+        <v>31322</v>
+      </c>
+      <c r="K34">
+        <v>30756</v>
+      </c>
+      <c r="L34">
+        <v>29449</v>
+      </c>
+      <c r="M34">
+        <v>26912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>25729</v>
+      </c>
+      <c r="C35">
+        <v>28006</v>
+      </c>
+      <c r="D35">
+        <v>26399</v>
+      </c>
+      <c r="E35">
+        <v>31554</v>
+      </c>
+      <c r="F35">
+        <v>23561</v>
+      </c>
+      <c r="G35">
+        <v>20793</v>
+      </c>
+      <c r="H35">
+        <v>12464</v>
+      </c>
+      <c r="I35">
+        <v>10716</v>
+      </c>
+      <c r="J35">
+        <v>10411</v>
+      </c>
+      <c r="K35">
+        <v>10929</v>
+      </c>
+      <c r="L35">
+        <v>12546</v>
+      </c>
+      <c r="M35">
+        <v>16055</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>22689</v>
+      </c>
+      <c r="C36">
+        <v>28963</v>
+      </c>
+      <c r="D36">
+        <v>28541</v>
+      </c>
+      <c r="E36">
+        <v>26501</v>
+      </c>
+      <c r="F36">
+        <v>23740</v>
+      </c>
+      <c r="G36">
+        <v>20700</v>
+      </c>
+      <c r="H36">
+        <v>13985</v>
+      </c>
+      <c r="I36">
+        <v>10428</v>
+      </c>
+      <c r="J36">
+        <v>10427</v>
+      </c>
+      <c r="K36">
+        <v>10928</v>
+      </c>
+      <c r="L36">
+        <v>12368</v>
+      </c>
+      <c r="M36">
+        <v>16044</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>25791</v>
+      </c>
+      <c r="C37">
+        <v>25682</v>
+      </c>
+      <c r="D37">
+        <v>27028</v>
+      </c>
+      <c r="E37">
+        <v>31036</v>
+      </c>
+      <c r="F37">
+        <v>21206</v>
+      </c>
+      <c r="G37">
+        <v>17385</v>
+      </c>
+      <c r="H37">
+        <v>12800</v>
+      </c>
+      <c r="I37">
+        <v>10630</v>
+      </c>
+      <c r="J37">
+        <v>10213</v>
+      </c>
+      <c r="K37">
+        <v>10705</v>
+      </c>
+      <c r="L37">
+        <v>12526</v>
+      </c>
+      <c r="M37">
+        <v>15942</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>23477</v>
+      </c>
+      <c r="C38">
+        <v>24491</v>
+      </c>
+      <c r="D38">
+        <v>29488</v>
+      </c>
+      <c r="E38">
+        <v>30058</v>
+      </c>
+      <c r="F38">
+        <v>23418</v>
+      </c>
+      <c r="G38">
+        <v>27778</v>
+      </c>
+      <c r="H38">
+        <v>29269</v>
+      </c>
+      <c r="I38">
+        <v>23421</v>
+      </c>
+      <c r="J38">
+        <v>25593</v>
+      </c>
+      <c r="K38">
+        <v>26726</v>
+      </c>
+      <c r="L38">
+        <v>23732</v>
+      </c>
+      <c r="M38">
+        <v>23003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>7030</v>
+      </c>
+      <c r="C39">
+        <v>6843</v>
+      </c>
+      <c r="D39">
+        <v>7079</v>
+      </c>
+      <c r="E39">
+        <v>7282</v>
+      </c>
+      <c r="F39">
+        <v>7709</v>
+      </c>
+      <c r="G39">
+        <v>7314</v>
+      </c>
+      <c r="H39">
+        <v>7556</v>
+      </c>
+      <c r="I39">
+        <v>7517</v>
+      </c>
+      <c r="J39">
+        <v>7285</v>
+      </c>
+      <c r="K39">
+        <v>7096</v>
+      </c>
+      <c r="L39">
+        <v>7027</v>
+      </c>
+      <c r="M39">
+        <v>6663</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/neut_assays/plate_reader_data/fPitt2postinf_NeutralizationAssay.xlsx
+++ b/data/neut_assays/plate_reader_data/fPitt2postinf_NeutralizationAssay.xlsx
@@ -9,17 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="27700" windowHeight="16460" activeTab="7"/>
+    <workbookView xWindow="31920" yWindow="460" windowWidth="27700" windowHeight="17200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
     <sheet name="K189D" sheetId="1" r:id="rId2"/>
     <sheet name="F193D" sheetId="3" r:id="rId3"/>
     <sheet name="K144E" sheetId="4" r:id="rId4"/>
-    <sheet name="WT2" sheetId="5" r:id="rId5"/>
-    <sheet name="L157D" sheetId="6" r:id="rId6"/>
-    <sheet name="R220D" sheetId="7" r:id="rId7"/>
-    <sheet name="F159G" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -389,364 +385,8 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Eguia, Rachel T</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
-Tecan.At.Common.DocumentManagement, 3.3.10.0
-Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
-Tecan.At.Common.MCS, 3.3.10.0
-Tecan.At.Common.Results, 3.3.10.0
-Tecan.At.Common.UI, 3.3.10.0
-Tecan.At.Communication.Common, 3.3.12.0
-Tecan.At.Communication.Port.IP, 3.3.12.0
-Tecan.At.Communication.Port.RS232, 3.3.12.0
-Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
-Tecan.At.Communication.Port.USB, 3.3.12.0
-Tecan.At.Communication.Server, 3.3.12.0
-Tecan.At.Communication.SIM.AMR, 3.1.17.0
-Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
-Tecan.At.Communication.SIM.Connect, 3.3.12.0
-Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
-Tecan.At.Communication.SIM.Safire3, 3.1.17.0
-Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
-Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
-Tecan.At.Instrument.Common, 3.3.12.0
-Tecan.At.Instrument.Common.Reader, 3.1.17.0
-Tecan.At.Instrument.Common.Stacker, 3.3.12.0
-Tecan.At.Instrument.Reader.AMR, 3.1.17.0
-Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
-Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
-Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
-Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
-Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
-Tecan.At.Instrument.Server, 3.3.12.0
-Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
-Tecan.At.Instrument.Stacker.Server, 3.3.12.0
-Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
-Tecan.At.Measurement.Common, 3.1.17.0
-Tecan.At.Measurement.Server, 3.1.17.0
-Tecan.At.XFluor, 1.9.17.0
-Tecan.At.XFluor.Connect.Reader, 1.9.17.0
-Tecan.At.XFluor.Core, 1.9.17.0
-Tecan.At.XFluor.Device, 1.9.17.0
-Tecan.At.XFluor.Device.AMR, 1.9.17.0
-Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
-Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
-Tecan.At.XFluor.Device.Reader, 1.9.17.0
-Tecan.At.XFluor.Device.Safire3, 1.9.17.0
-Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
-Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
-Tecan.At.XFluor.ExcelOutput, 1.9.17.0
-Tecan.At.XFluor.NanoQuant, 1.9.17.0
-Tecan.At.XFluor.ReaderEditor, 1.9.17.0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
-MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
-ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
-LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
-TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Eguia, Rachel T</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
-Tecan.At.Common.DocumentManagement, 3.3.10.0
-Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
-Tecan.At.Common.MCS, 3.3.10.0
-Tecan.At.Common.Results, 3.3.10.0
-Tecan.At.Common.UI, 3.3.10.0
-Tecan.At.Communication.Common, 3.3.12.0
-Tecan.At.Communication.Port.IP, 3.3.12.0
-Tecan.At.Communication.Port.RS232, 3.3.12.0
-Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
-Tecan.At.Communication.Port.USB, 3.3.12.0
-Tecan.At.Communication.Server, 3.3.12.0
-Tecan.At.Communication.SIM.AMR, 3.1.17.0
-Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
-Tecan.At.Communication.SIM.Connect, 3.3.12.0
-Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
-Tecan.At.Communication.SIM.Safire3, 3.1.17.0
-Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
-Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
-Tecan.At.Instrument.Common, 3.3.12.0
-Tecan.At.Instrument.Common.Reader, 3.1.17.0
-Tecan.At.Instrument.Common.Stacker, 3.3.12.0
-Tecan.At.Instrument.Reader.AMR, 3.1.17.0
-Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
-Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
-Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
-Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
-Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
-Tecan.At.Instrument.Server, 3.3.12.0
-Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
-Tecan.At.Instrument.Stacker.Server, 3.3.12.0
-Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
-Tecan.At.Measurement.Common, 3.1.17.0
-Tecan.At.Measurement.Server, 3.1.17.0
-Tecan.At.XFluor, 1.9.17.0
-Tecan.At.XFluor.Connect.Reader, 1.9.17.0
-Tecan.At.XFluor.Core, 1.9.17.0
-Tecan.At.XFluor.Device, 1.9.17.0
-Tecan.At.XFluor.Device.AMR, 1.9.17.0
-Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
-Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
-Tecan.At.XFluor.Device.Reader, 1.9.17.0
-Tecan.At.XFluor.Device.Safire3, 1.9.17.0
-Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
-Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
-Tecan.At.XFluor.ExcelOutput, 1.9.17.0
-Tecan.At.XFluor.NanoQuant, 1.9.17.0
-Tecan.At.XFluor.ReaderEditor, 1.9.17.0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
-MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
-ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
-LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
-TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Eguia, Rachel T</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
-Tecan.At.Common.DocumentManagement, 3.3.10.0
-Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
-Tecan.At.Common.MCS, 3.3.10.0
-Tecan.At.Common.Results, 3.3.10.0
-Tecan.At.Common.UI, 3.3.10.0
-Tecan.At.Communication.Common, 3.3.12.0
-Tecan.At.Communication.Port.IP, 3.3.12.0
-Tecan.At.Communication.Port.RS232, 3.3.12.0
-Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
-Tecan.At.Communication.Port.USB, 3.3.12.0
-Tecan.At.Communication.Server, 3.3.12.0
-Tecan.At.Communication.SIM.AMR, 3.1.17.0
-Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
-Tecan.At.Communication.SIM.Connect, 3.3.12.0
-Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
-Tecan.At.Communication.SIM.Safire3, 3.1.17.0
-Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
-Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
-Tecan.At.Instrument.Common, 3.3.12.0
-Tecan.At.Instrument.Common.Reader, 3.1.17.0
-Tecan.At.Instrument.Common.Stacker, 3.3.12.0
-Tecan.At.Instrument.Reader.AMR, 3.1.17.0
-Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
-Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
-Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
-Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
-Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
-Tecan.At.Instrument.Server, 3.3.12.0
-Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
-Tecan.At.Instrument.Stacker.Server, 3.3.12.0
-Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
-Tecan.At.Measurement.Common, 3.1.17.0
-Tecan.At.Measurement.Server, 3.1.17.0
-Tecan.At.XFluor, 1.9.17.0
-Tecan.At.XFluor.Connect.Reader, 1.9.17.0
-Tecan.At.XFluor.Core, 1.9.17.0
-Tecan.At.XFluor.Device, 1.9.17.0
-Tecan.At.XFluor.Device.AMR, 1.9.17.0
-Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
-Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
-Tecan.At.XFluor.Device.Reader, 1.9.17.0
-Tecan.At.XFluor.Device.Safire3, 1.9.17.0
-Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
-Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
-Tecan.At.XFluor.ExcelOutput, 1.9.17.0
-Tecan.At.XFluor.NanoQuant, 1.9.17.0
-Tecan.At.XFluor.ReaderEditor, 1.9.17.0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
-MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
-ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
-LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
-TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Eguia, Rachel T</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
-Tecan.At.Common.DocumentManagement, 3.3.10.0
-Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
-Tecan.At.Common.MCS, 3.3.10.0
-Tecan.At.Common.Results, 3.3.10.0
-Tecan.At.Common.UI, 3.3.10.0
-Tecan.At.Communication.Common, 3.3.12.0
-Tecan.At.Communication.Port.IP, 3.3.12.0
-Tecan.At.Communication.Port.RS232, 3.3.12.0
-Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
-Tecan.At.Communication.Port.USB, 3.3.12.0
-Tecan.At.Communication.Server, 3.3.12.0
-Tecan.At.Communication.SIM.AMR, 3.1.17.0
-Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
-Tecan.At.Communication.SIM.Connect, 3.3.12.0
-Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
-Tecan.At.Communication.SIM.Safire3, 3.1.17.0
-Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
-Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
-Tecan.At.Instrument.Common, 3.3.12.0
-Tecan.At.Instrument.Common.Reader, 3.1.17.0
-Tecan.At.Instrument.Common.Stacker, 3.3.12.0
-Tecan.At.Instrument.Reader.AMR, 3.1.17.0
-Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
-Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
-Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
-Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
-Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
-Tecan.At.Instrument.Server, 3.3.12.0
-Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
-Tecan.At.Instrument.Stacker.Server, 3.3.12.0
-Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
-Tecan.At.Measurement.Common, 3.1.17.0
-Tecan.At.Measurement.Server, 3.1.17.0
-Tecan.At.XFluor, 1.9.17.0
-Tecan.At.XFluor.Connect.Reader, 1.9.17.0
-Tecan.At.XFluor.Core, 1.9.17.0
-Tecan.At.XFluor.Device, 1.9.17.0
-Tecan.At.XFluor.Device.AMR, 1.9.17.0
-Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
-Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
-Tecan.At.XFluor.Device.Reader, 1.9.17.0
-Tecan.At.XFluor.Device.Safire3, 1.9.17.0
-Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
-Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
-Tecan.At.XFluor.ExcelOutput, 1.9.17.0
-Tecan.At.XFluor.NanoQuant, 1.9.17.0
-Tecan.At.XFluor.ReaderEditor, 1.9.17.0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
-MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
-ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
-LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
-TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="62">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -932,57 +572,6 @@
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>9:48:30 AM</t>
-  </si>
-  <si>
-    <t>FHCRC\reguia</t>
-  </si>
-  <si>
-    <t>5/24/2019 9:49:27 AM</t>
-  </si>
-  <si>
-    <t>Temperature: 24.9 °C</t>
-  </si>
-  <si>
-    <t>5/24/2019 9:50:23 AM</t>
-  </si>
-  <si>
-    <t>9:46:13 AM</t>
-  </si>
-  <si>
-    <t>5/24/2019 9:47:16 AM</t>
-  </si>
-  <si>
-    <t>Temperature: 24.8 °C</t>
-  </si>
-  <si>
-    <t>5/24/2019 9:48:12 AM</t>
-  </si>
-  <si>
-    <t>9:43:51 AM</t>
-  </si>
-  <si>
-    <t>5/24/2019 9:44:48 AM</t>
-  </si>
-  <si>
-    <t>Temperature: 24.7 °C</t>
-  </si>
-  <si>
-    <t>5/24/2019 9:45:44 AM</t>
-  </si>
-  <si>
-    <t>9:41:34 AM</t>
-  </si>
-  <si>
-    <t>5/24/2019 9:42:37 AM</t>
-  </si>
-  <si>
-    <t>Temperature: 24.5 °C</t>
-  </si>
-  <si>
-    <t>5/24/2019 9:43:33 AM</t>
   </si>
 </sst>
 </file>
@@ -3001,7 +2590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
@@ -3526,2416 +3115,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>485</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>515</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>107</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24">
-        <v>400</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3">
-        <v>4</v>
-      </c>
-      <c r="F31" s="3">
-        <v>5</v>
-      </c>
-      <c r="G31" s="3">
-        <v>6</v>
-      </c>
-      <c r="H31" s="3">
-        <v>7</v>
-      </c>
-      <c r="I31" s="3">
-        <v>8</v>
-      </c>
-      <c r="J31" s="3">
-        <v>9</v>
-      </c>
-      <c r="K31" s="3">
-        <v>10</v>
-      </c>
-      <c r="L31" s="3">
-        <v>11</v>
-      </c>
-      <c r="M31" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32">
-        <v>12639</v>
-      </c>
-      <c r="C32">
-        <v>12811</v>
-      </c>
-      <c r="D32">
-        <v>13166</v>
-      </c>
-      <c r="E32">
-        <v>13508</v>
-      </c>
-      <c r="F32">
-        <v>13715</v>
-      </c>
-      <c r="G32">
-        <v>13724</v>
-      </c>
-      <c r="H32">
-        <v>13748</v>
-      </c>
-      <c r="I32">
-        <v>13677</v>
-      </c>
-      <c r="J32">
-        <v>13363</v>
-      </c>
-      <c r="K32">
-        <v>12980</v>
-      </c>
-      <c r="L32">
-        <v>12604</v>
-      </c>
-      <c r="M32">
-        <v>12175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>18934</v>
-      </c>
-      <c r="C33">
-        <v>18946</v>
-      </c>
-      <c r="D33">
-        <v>19232</v>
-      </c>
-      <c r="E33">
-        <v>19389</v>
-      </c>
-      <c r="F33">
-        <v>19646</v>
-      </c>
-      <c r="G33">
-        <v>19674</v>
-      </c>
-      <c r="H33">
-        <v>19477</v>
-      </c>
-      <c r="I33">
-        <v>19535</v>
-      </c>
-      <c r="J33">
-        <v>19173</v>
-      </c>
-      <c r="K33">
-        <v>19065</v>
-      </c>
-      <c r="L33">
-        <v>18593</v>
-      </c>
-      <c r="M33">
-        <v>18354</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34">
-        <v>35226</v>
-      </c>
-      <c r="C34">
-        <v>37806</v>
-      </c>
-      <c r="D34">
-        <v>35893</v>
-      </c>
-      <c r="E34">
-        <v>35737</v>
-      </c>
-      <c r="F34">
-        <v>38894</v>
-      </c>
-      <c r="G34">
-        <v>36654</v>
-      </c>
-      <c r="H34">
-        <v>37124</v>
-      </c>
-      <c r="I34">
-        <v>36926</v>
-      </c>
-      <c r="J34">
-        <v>36425</v>
-      </c>
-      <c r="K34">
-        <v>38456</v>
-      </c>
-      <c r="L34">
-        <v>33272</v>
-      </c>
-      <c r="M34">
-        <v>33841</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35">
-        <v>37214</v>
-      </c>
-      <c r="C35">
-        <v>34868</v>
-      </c>
-      <c r="D35">
-        <v>36017</v>
-      </c>
-      <c r="E35">
-        <v>36371</v>
-      </c>
-      <c r="F35">
-        <v>34900</v>
-      </c>
-      <c r="G35">
-        <v>30808</v>
-      </c>
-      <c r="H35">
-        <v>25292</v>
-      </c>
-      <c r="I35">
-        <v>21332</v>
-      </c>
-      <c r="J35">
-        <v>19086</v>
-      </c>
-      <c r="K35">
-        <v>19574</v>
-      </c>
-      <c r="L35">
-        <v>21392</v>
-      </c>
-      <c r="M35">
-        <v>26823</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36">
-        <v>34376</v>
-      </c>
-      <c r="C36">
-        <v>37169</v>
-      </c>
-      <c r="D36">
-        <v>35668</v>
-      </c>
-      <c r="E36">
-        <v>34336</v>
-      </c>
-      <c r="F36">
-        <v>34186</v>
-      </c>
-      <c r="G36">
-        <v>28688</v>
-      </c>
-      <c r="H36">
-        <v>26732</v>
-      </c>
-      <c r="I36">
-        <v>21131</v>
-      </c>
-      <c r="J36">
-        <v>19212</v>
-      </c>
-      <c r="K36">
-        <v>19752</v>
-      </c>
-      <c r="L36">
-        <v>21391</v>
-      </c>
-      <c r="M36">
-        <v>26550</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37">
-        <v>35562</v>
-      </c>
-      <c r="C37">
-        <v>34537</v>
-      </c>
-      <c r="D37">
-        <v>33456</v>
-      </c>
-      <c r="E37">
-        <v>36156</v>
-      </c>
-      <c r="F37">
-        <v>33717</v>
-      </c>
-      <c r="G37">
-        <v>31487</v>
-      </c>
-      <c r="H37">
-        <v>26323</v>
-      </c>
-      <c r="I37">
-        <v>21066</v>
-      </c>
-      <c r="J37">
-        <v>19054</v>
-      </c>
-      <c r="K37">
-        <v>19579</v>
-      </c>
-      <c r="L37">
-        <v>21385</v>
-      </c>
-      <c r="M37">
-        <v>26232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38">
-        <v>34381</v>
-      </c>
-      <c r="C38">
-        <v>33671</v>
-      </c>
-      <c r="D38">
-        <v>34424</v>
-      </c>
-      <c r="E38">
-        <v>32859</v>
-      </c>
-      <c r="F38">
-        <v>34996</v>
-      </c>
-      <c r="G38">
-        <v>35609</v>
-      </c>
-      <c r="H38">
-        <v>36131</v>
-      </c>
-      <c r="I38">
-        <v>36812</v>
-      </c>
-      <c r="J38">
-        <v>35502</v>
-      </c>
-      <c r="K38">
-        <v>36197</v>
-      </c>
-      <c r="L38">
-        <v>34265</v>
-      </c>
-      <c r="M38">
-        <v>32458</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39">
-        <v>11475</v>
-      </c>
-      <c r="C39">
-        <v>11740</v>
-      </c>
-      <c r="D39">
-        <v>12159</v>
-      </c>
-      <c r="E39">
-        <v>12357</v>
-      </c>
-      <c r="F39">
-        <v>12710</v>
-      </c>
-      <c r="G39">
-        <v>12795</v>
-      </c>
-      <c r="H39">
-        <v>12769</v>
-      </c>
-      <c r="I39">
-        <v>12841</v>
-      </c>
-      <c r="J39">
-        <v>12408</v>
-      </c>
-      <c r="K39">
-        <v>12166</v>
-      </c>
-      <c r="L39">
-        <v>11872</v>
-      </c>
-      <c r="M39">
-        <v>11417</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>485</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>515</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24">
-        <v>400</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3">
-        <v>4</v>
-      </c>
-      <c r="F31" s="3">
-        <v>5</v>
-      </c>
-      <c r="G31" s="3">
-        <v>6</v>
-      </c>
-      <c r="H31" s="3">
-        <v>7</v>
-      </c>
-      <c r="I31" s="3">
-        <v>8</v>
-      </c>
-      <c r="J31" s="3">
-        <v>9</v>
-      </c>
-      <c r="K31" s="3">
-        <v>10</v>
-      </c>
-      <c r="L31" s="3">
-        <v>11</v>
-      </c>
-      <c r="M31" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32">
-        <v>7578</v>
-      </c>
-      <c r="C32">
-        <v>7840</v>
-      </c>
-      <c r="D32">
-        <v>7924</v>
-      </c>
-      <c r="E32">
-        <v>8094</v>
-      </c>
-      <c r="F32">
-        <v>8448</v>
-      </c>
-      <c r="G32">
-        <v>8475</v>
-      </c>
-      <c r="H32">
-        <v>8271</v>
-      </c>
-      <c r="I32">
-        <v>8172</v>
-      </c>
-      <c r="J32">
-        <v>8191</v>
-      </c>
-      <c r="K32">
-        <v>8033</v>
-      </c>
-      <c r="L32">
-        <v>7886</v>
-      </c>
-      <c r="M32">
-        <v>7491</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>10133</v>
-      </c>
-      <c r="C33">
-        <v>10299</v>
-      </c>
-      <c r="D33">
-        <v>10529</v>
-      </c>
-      <c r="E33">
-        <v>10440</v>
-      </c>
-      <c r="F33">
-        <v>10654</v>
-      </c>
-      <c r="G33">
-        <v>10781</v>
-      </c>
-      <c r="H33">
-        <v>10580</v>
-      </c>
-      <c r="I33">
-        <v>10591</v>
-      </c>
-      <c r="J33">
-        <v>10500</v>
-      </c>
-      <c r="K33">
-        <v>10321</v>
-      </c>
-      <c r="L33">
-        <v>10224</v>
-      </c>
-      <c r="M33">
-        <v>10167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34">
-        <v>30168</v>
-      </c>
-      <c r="C34">
-        <v>33993</v>
-      </c>
-      <c r="D34">
-        <v>33780</v>
-      </c>
-      <c r="E34">
-        <v>36304</v>
-      </c>
-      <c r="F34">
-        <v>36180</v>
-      </c>
-      <c r="G34">
-        <v>38465</v>
-      </c>
-      <c r="H34">
-        <v>36281</v>
-      </c>
-      <c r="I34">
-        <v>39475</v>
-      </c>
-      <c r="J34">
-        <v>37365</v>
-      </c>
-      <c r="K34">
-        <v>37899</v>
-      </c>
-      <c r="L34">
-        <v>36847</v>
-      </c>
-      <c r="M34">
-        <v>33056</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35">
-        <v>29756</v>
-      </c>
-      <c r="C35">
-        <v>33318</v>
-      </c>
-      <c r="D35">
-        <v>31071</v>
-      </c>
-      <c r="E35">
-        <v>33557</v>
-      </c>
-      <c r="F35">
-        <v>33528</v>
-      </c>
-      <c r="G35">
-        <v>31064</v>
-      </c>
-      <c r="H35">
-        <v>22251</v>
-      </c>
-      <c r="I35">
-        <v>16027</v>
-      </c>
-      <c r="J35">
-        <v>11234</v>
-      </c>
-      <c r="K35">
-        <v>10881</v>
-      </c>
-      <c r="L35">
-        <v>11812</v>
-      </c>
-      <c r="M35">
-        <v>15049</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36">
-        <v>28813</v>
-      </c>
-      <c r="C36">
-        <v>32479</v>
-      </c>
-      <c r="D36">
-        <v>32036</v>
-      </c>
-      <c r="E36">
-        <v>34511</v>
-      </c>
-      <c r="F36">
-        <v>34108</v>
-      </c>
-      <c r="G36">
-        <v>32160</v>
-      </c>
-      <c r="H36">
-        <v>25690</v>
-      </c>
-      <c r="I36">
-        <v>14762</v>
-      </c>
-      <c r="J36">
-        <v>11050</v>
-      </c>
-      <c r="K36">
-        <v>10575</v>
-      </c>
-      <c r="L36">
-        <v>11806</v>
-      </c>
-      <c r="M36">
-        <v>14680</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37">
-        <v>30652</v>
-      </c>
-      <c r="C37">
-        <v>32763</v>
-      </c>
-      <c r="D37">
-        <v>33474</v>
-      </c>
-      <c r="E37">
-        <v>33078</v>
-      </c>
-      <c r="F37">
-        <v>34190</v>
-      </c>
-      <c r="G37">
-        <v>29981</v>
-      </c>
-      <c r="H37">
-        <v>23567</v>
-      </c>
-      <c r="I37">
-        <v>14899</v>
-      </c>
-      <c r="J37">
-        <v>10901</v>
-      </c>
-      <c r="K37">
-        <v>10659</v>
-      </c>
-      <c r="L37">
-        <v>12004</v>
-      </c>
-      <c r="M37">
-        <v>14713</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38">
-        <v>30226</v>
-      </c>
-      <c r="C38">
-        <v>31605</v>
-      </c>
-      <c r="D38">
-        <v>32818</v>
-      </c>
-      <c r="E38">
-        <v>33397</v>
-      </c>
-      <c r="F38">
-        <v>33553</v>
-      </c>
-      <c r="G38">
-        <v>35722</v>
-      </c>
-      <c r="H38">
-        <v>35927</v>
-      </c>
-      <c r="I38">
-        <v>33624</v>
-      </c>
-      <c r="J38">
-        <v>36175</v>
-      </c>
-      <c r="K38">
-        <v>33441</v>
-      </c>
-      <c r="L38">
-        <v>32032</v>
-      </c>
-      <c r="M38">
-        <v>30786</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39">
-        <v>6985</v>
-      </c>
-      <c r="C39">
-        <v>7462</v>
-      </c>
-      <c r="D39">
-        <v>7288</v>
-      </c>
-      <c r="E39">
-        <v>7484</v>
-      </c>
-      <c r="F39">
-        <v>7769</v>
-      </c>
-      <c r="G39">
-        <v>7838</v>
-      </c>
-      <c r="H39">
-        <v>7781</v>
-      </c>
-      <c r="I39">
-        <v>7646</v>
-      </c>
-      <c r="J39">
-        <v>7545</v>
-      </c>
-      <c r="K39">
-        <v>7431</v>
-      </c>
-      <c r="L39">
-        <v>7140</v>
-      </c>
-      <c r="M39">
-        <v>6931</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>485</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>515</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>107</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24">
-        <v>400</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3">
-        <v>4</v>
-      </c>
-      <c r="F31" s="3">
-        <v>5</v>
-      </c>
-      <c r="G31" s="3">
-        <v>6</v>
-      </c>
-      <c r="H31" s="3">
-        <v>7</v>
-      </c>
-      <c r="I31" s="3">
-        <v>8</v>
-      </c>
-      <c r="J31" s="3">
-        <v>9</v>
-      </c>
-      <c r="K31" s="3">
-        <v>10</v>
-      </c>
-      <c r="L31" s="3">
-        <v>11</v>
-      </c>
-      <c r="M31" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32">
-        <v>12230</v>
-      </c>
-      <c r="C32">
-        <v>12464</v>
-      </c>
-      <c r="D32">
-        <v>13477</v>
-      </c>
-      <c r="E32">
-        <v>13679</v>
-      </c>
-      <c r="F32">
-        <v>13922</v>
-      </c>
-      <c r="G32">
-        <v>13889</v>
-      </c>
-      <c r="H32">
-        <v>13954</v>
-      </c>
-      <c r="I32">
-        <v>13335</v>
-      </c>
-      <c r="J32">
-        <v>13747</v>
-      </c>
-      <c r="K32">
-        <v>13090</v>
-      </c>
-      <c r="L32">
-        <v>12771</v>
-      </c>
-      <c r="M32">
-        <v>12310</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>17730</v>
-      </c>
-      <c r="C33">
-        <v>18004</v>
-      </c>
-      <c r="D33">
-        <v>18332</v>
-      </c>
-      <c r="E33">
-        <v>18471</v>
-      </c>
-      <c r="F33">
-        <v>18705</v>
-      </c>
-      <c r="G33">
-        <v>19002</v>
-      </c>
-      <c r="H33">
-        <v>18629</v>
-      </c>
-      <c r="I33">
-        <v>18760</v>
-      </c>
-      <c r="J33">
-        <v>18606</v>
-      </c>
-      <c r="K33">
-        <v>18373</v>
-      </c>
-      <c r="L33">
-        <v>17867</v>
-      </c>
-      <c r="M33">
-        <v>17817</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34">
-        <v>35280</v>
-      </c>
-      <c r="C34">
-        <v>41145</v>
-      </c>
-      <c r="D34">
-        <v>33783</v>
-      </c>
-      <c r="E34">
-        <v>38959</v>
-      </c>
-      <c r="F34">
-        <v>38642</v>
-      </c>
-      <c r="G34">
-        <v>39391</v>
-      </c>
-      <c r="H34">
-        <v>38348</v>
-      </c>
-      <c r="I34">
-        <v>36210</v>
-      </c>
-      <c r="J34">
-        <v>34427</v>
-      </c>
-      <c r="K34">
-        <v>37573</v>
-      </c>
-      <c r="L34">
-        <v>38531</v>
-      </c>
-      <c r="M34">
-        <v>36220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35">
-        <v>33159</v>
-      </c>
-      <c r="C35">
-        <v>34379</v>
-      </c>
-      <c r="D35">
-        <v>32768</v>
-      </c>
-      <c r="E35">
-        <v>29334</v>
-      </c>
-      <c r="F35">
-        <v>24730</v>
-      </c>
-      <c r="G35">
-        <v>19332</v>
-      </c>
-      <c r="H35">
-        <v>18525</v>
-      </c>
-      <c r="I35">
-        <v>18158</v>
-      </c>
-      <c r="J35">
-        <v>18223</v>
-      </c>
-      <c r="K35">
-        <v>18711</v>
-      </c>
-      <c r="L35">
-        <v>20698</v>
-      </c>
-      <c r="M35">
-        <v>25325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36">
-        <v>33451</v>
-      </c>
-      <c r="C36">
-        <v>33536</v>
-      </c>
-      <c r="D36">
-        <v>28324</v>
-      </c>
-      <c r="E36">
-        <v>29054</v>
-      </c>
-      <c r="F36">
-        <v>24263</v>
-      </c>
-      <c r="G36">
-        <v>19746</v>
-      </c>
-      <c r="H36">
-        <v>18059</v>
-      </c>
-      <c r="I36">
-        <v>17829</v>
-      </c>
-      <c r="J36">
-        <v>18208</v>
-      </c>
-      <c r="K36">
-        <v>18473</v>
-      </c>
-      <c r="L36">
-        <v>20402</v>
-      </c>
-      <c r="M36">
-        <v>25093</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37">
-        <v>32997</v>
-      </c>
-      <c r="C37">
-        <v>34060</v>
-      </c>
-      <c r="D37">
-        <v>30531</v>
-      </c>
-      <c r="E37">
-        <v>29312</v>
-      </c>
-      <c r="F37">
-        <v>23098</v>
-      </c>
-      <c r="G37">
-        <v>19038</v>
-      </c>
-      <c r="H37">
-        <v>17800</v>
-      </c>
-      <c r="I37">
-        <v>17497</v>
-      </c>
-      <c r="J37">
-        <v>17564</v>
-      </c>
-      <c r="K37">
-        <v>18401</v>
-      </c>
-      <c r="L37">
-        <v>20210</v>
-      </c>
-      <c r="M37">
-        <v>24968</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38">
-        <v>34989</v>
-      </c>
-      <c r="C38">
-        <v>34348</v>
-      </c>
-      <c r="D38">
-        <v>34598</v>
-      </c>
-      <c r="E38">
-        <v>34641</v>
-      </c>
-      <c r="F38">
-        <v>35314</v>
-      </c>
-      <c r="G38">
-        <v>33898</v>
-      </c>
-      <c r="H38">
-        <v>34103</v>
-      </c>
-      <c r="I38">
-        <v>34158</v>
-      </c>
-      <c r="J38">
-        <v>34514</v>
-      </c>
-      <c r="K38">
-        <v>33622</v>
-      </c>
-      <c r="L38">
-        <v>33177</v>
-      </c>
-      <c r="M38">
-        <v>33153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39">
-        <v>11760</v>
-      </c>
-      <c r="C39">
-        <v>11937</v>
-      </c>
-      <c r="D39">
-        <v>12146</v>
-      </c>
-      <c r="E39">
-        <v>12369</v>
-      </c>
-      <c r="F39">
-        <v>12711</v>
-      </c>
-      <c r="G39">
-        <v>12825</v>
-      </c>
-      <c r="H39">
-        <v>12859</v>
-      </c>
-      <c r="I39">
-        <v>12596</v>
-      </c>
-      <c r="J39">
-        <v>12529</v>
-      </c>
-      <c r="K39">
-        <v>12293</v>
-      </c>
-      <c r="L39">
-        <v>11662</v>
-      </c>
-      <c r="M39">
-        <v>11418</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>485</v>
-      </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>515</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24">
-        <v>400</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3">
-        <v>4</v>
-      </c>
-      <c r="F31" s="3">
-        <v>5</v>
-      </c>
-      <c r="G31" s="3">
-        <v>6</v>
-      </c>
-      <c r="H31" s="3">
-        <v>7</v>
-      </c>
-      <c r="I31" s="3">
-        <v>8</v>
-      </c>
-      <c r="J31" s="3">
-        <v>9</v>
-      </c>
-      <c r="K31" s="3">
-        <v>10</v>
-      </c>
-      <c r="L31" s="3">
-        <v>11</v>
-      </c>
-      <c r="M31" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32">
-        <v>7143</v>
-      </c>
-      <c r="C32">
-        <v>7599</v>
-      </c>
-      <c r="D32">
-        <v>7790</v>
-      </c>
-      <c r="E32">
-        <v>8058</v>
-      </c>
-      <c r="F32">
-        <v>8115</v>
-      </c>
-      <c r="G32">
-        <v>7979</v>
-      </c>
-      <c r="H32">
-        <v>8185</v>
-      </c>
-      <c r="I32">
-        <v>8157</v>
-      </c>
-      <c r="J32">
-        <v>8013</v>
-      </c>
-      <c r="K32">
-        <v>7769</v>
-      </c>
-      <c r="L32">
-        <v>7514</v>
-      </c>
-      <c r="M32">
-        <v>7157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>9888</v>
-      </c>
-      <c r="C33">
-        <v>9818</v>
-      </c>
-      <c r="D33">
-        <v>10270</v>
-      </c>
-      <c r="E33">
-        <v>10453</v>
-      </c>
-      <c r="F33">
-        <v>10442</v>
-      </c>
-      <c r="G33">
-        <v>10560</v>
-      </c>
-      <c r="H33">
-        <v>10502</v>
-      </c>
-      <c r="I33">
-        <v>10483</v>
-      </c>
-      <c r="J33">
-        <v>10428</v>
-      </c>
-      <c r="K33">
-        <v>10150</v>
-      </c>
-      <c r="L33">
-        <v>10042</v>
-      </c>
-      <c r="M33">
-        <v>9894</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34">
-        <v>26967</v>
-      </c>
-      <c r="C34">
-        <v>27764</v>
-      </c>
-      <c r="D34">
-        <v>27807</v>
-      </c>
-      <c r="E34">
-        <v>33206</v>
-      </c>
-      <c r="F34">
-        <v>29320</v>
-      </c>
-      <c r="G34">
-        <v>35988</v>
-      </c>
-      <c r="H34">
-        <v>31078</v>
-      </c>
-      <c r="I34">
-        <v>28553</v>
-      </c>
-      <c r="J34">
-        <v>31322</v>
-      </c>
-      <c r="K34">
-        <v>30756</v>
-      </c>
-      <c r="L34">
-        <v>29449</v>
-      </c>
-      <c r="M34">
-        <v>26912</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35">
-        <v>25729</v>
-      </c>
-      <c r="C35">
-        <v>28006</v>
-      </c>
-      <c r="D35">
-        <v>26399</v>
-      </c>
-      <c r="E35">
-        <v>31554</v>
-      </c>
-      <c r="F35">
-        <v>23561</v>
-      </c>
-      <c r="G35">
-        <v>20793</v>
-      </c>
-      <c r="H35">
-        <v>12464</v>
-      </c>
-      <c r="I35">
-        <v>10716</v>
-      </c>
-      <c r="J35">
-        <v>10411</v>
-      </c>
-      <c r="K35">
-        <v>10929</v>
-      </c>
-      <c r="L35">
-        <v>12546</v>
-      </c>
-      <c r="M35">
-        <v>16055</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36">
-        <v>22689</v>
-      </c>
-      <c r="C36">
-        <v>28963</v>
-      </c>
-      <c r="D36">
-        <v>28541</v>
-      </c>
-      <c r="E36">
-        <v>26501</v>
-      </c>
-      <c r="F36">
-        <v>23740</v>
-      </c>
-      <c r="G36">
-        <v>20700</v>
-      </c>
-      <c r="H36">
-        <v>13985</v>
-      </c>
-      <c r="I36">
-        <v>10428</v>
-      </c>
-      <c r="J36">
-        <v>10427</v>
-      </c>
-      <c r="K36">
-        <v>10928</v>
-      </c>
-      <c r="L36">
-        <v>12368</v>
-      </c>
-      <c r="M36">
-        <v>16044</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37">
-        <v>25791</v>
-      </c>
-      <c r="C37">
-        <v>25682</v>
-      </c>
-      <c r="D37">
-        <v>27028</v>
-      </c>
-      <c r="E37">
-        <v>31036</v>
-      </c>
-      <c r="F37">
-        <v>21206</v>
-      </c>
-      <c r="G37">
-        <v>17385</v>
-      </c>
-      <c r="H37">
-        <v>12800</v>
-      </c>
-      <c r="I37">
-        <v>10630</v>
-      </c>
-      <c r="J37">
-        <v>10213</v>
-      </c>
-      <c r="K37">
-        <v>10705</v>
-      </c>
-      <c r="L37">
-        <v>12526</v>
-      </c>
-      <c r="M37">
-        <v>15942</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38">
-        <v>23477</v>
-      </c>
-      <c r="C38">
-        <v>24491</v>
-      </c>
-      <c r="D38">
-        <v>29488</v>
-      </c>
-      <c r="E38">
-        <v>30058</v>
-      </c>
-      <c r="F38">
-        <v>23418</v>
-      </c>
-      <c r="G38">
-        <v>27778</v>
-      </c>
-      <c r="H38">
-        <v>29269</v>
-      </c>
-      <c r="I38">
-        <v>23421</v>
-      </c>
-      <c r="J38">
-        <v>25593</v>
-      </c>
-      <c r="K38">
-        <v>26726</v>
-      </c>
-      <c r="L38">
-        <v>23732</v>
-      </c>
-      <c r="M38">
-        <v>23003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39">
-        <v>7030</v>
-      </c>
-      <c r="C39">
-        <v>6843</v>
-      </c>
-      <c r="D39">
-        <v>7079</v>
-      </c>
-      <c r="E39">
-        <v>7282</v>
-      </c>
-      <c r="F39">
-        <v>7709</v>
-      </c>
-      <c r="G39">
-        <v>7314</v>
-      </c>
-      <c r="H39">
-        <v>7556</v>
-      </c>
-      <c r="I39">
-        <v>7517</v>
-      </c>
-      <c r="J39">
-        <v>7285</v>
-      </c>
-      <c r="K39">
-        <v>7096</v>
-      </c>
-      <c r="L39">
-        <v>7027</v>
-      </c>
-      <c r="M39">
-        <v>6663</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/neut_assays/plate_reader_data/fPitt2postinf_NeutralizationAssay.xlsx
+++ b/data/neut_assays/plate_reader_data/fPitt2postinf_NeutralizationAssay.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juhyemlee/Google Drive/Bloom_Lab/Perth2009_MAP/NeutralizationAssays/mutvalidation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="460" windowWidth="27700" windowHeight="17200" activeTab="3"/>
+    <workbookView xWindow="7280" yWindow="1120" windowWidth="27700" windowHeight="16460" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
     <sheet name="K189D" sheetId="1" r:id="rId2"/>
     <sheet name="F193D" sheetId="3" r:id="rId3"/>
     <sheet name="K144E" sheetId="4" r:id="rId4"/>
+    <sheet name="WT2" sheetId="5" r:id="rId5"/>
+    <sheet name="R220D" sheetId="7" r:id="rId6"/>
+    <sheet name="L157D" sheetId="6" r:id="rId7"/>
+    <sheet name="F159G" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -385,8 +384,364 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eguia, Rachel T</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
+Tecan.At.Common.DocumentManagement, 3.3.10.0
+Tecan.At.Common.DocumentManagement.Reader, 3.1.17.0
+Tecan.At.Common.MCS, 3.3.10.0
+Tecan.At.Common.Results, 3.3.10.0
+Tecan.At.Common.UI, 3.3.10.0
+Tecan.At.Communication.Common, 3.3.12.0
+Tecan.At.Communication.Port.IP, 3.3.12.0
+Tecan.At.Communication.Port.RS232, 3.3.12.0
+Tecan.At.Communication.Port.SIM.Common, 3.3.12.0
+Tecan.At.Communication.Port.USB, 3.3.12.0
+Tecan.At.Communication.Server, 3.3.12.0
+Tecan.At.Communication.SIM.AMR, 3.1.17.0
+Tecan.At.Communication.SIM.AMRPlus, 3.1.17.0
+Tecan.At.Communication.SIM.Connect, 3.3.12.0
+Tecan.At.Communication.SIM.GeniosUltra, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3, 3.1.17.0
+Tecan.At.Communication.SIM.Safire3Pro, 3.1.17.0
+Tecan.At.Communication.SIM.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Common, 3.3.12.0
+Tecan.At.Instrument.Common.Reader, 3.1.17.0
+Tecan.At.Instrument.Common.Stacker, 3.3.12.0
+Tecan.At.Instrument.Reader.AMR, 3.1.17.0
+Tecan.At.Instrument.Reader.AMRPlus, 3.1.17.0
+Tecan.At.Instrument.Reader.GeniosUltra, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3, 3.1.17.0
+Tecan.At.Instrument.Reader.Safire3Pro, 3.1.17.0
+Tecan.At.Instrument.Reader.SunriseMini, 3.1.17.0
+Tecan.At.Instrument.Server, 3.3.12.0
+Tecan.At.Instrument.Stacker.Connect, 3.3.12.0
+Tecan.At.Instrument.Stacker.Server, 3.3.12.0
+Tecan.At.Measurement.BuiltInTest.Common, 3.1.17.0
+Tecan.At.Measurement.Common, 3.1.17.0
+Tecan.At.Measurement.Server, 3.1.17.0
+Tecan.At.XFluor, 1.9.17.0
+Tecan.At.XFluor.Connect.Reader, 1.9.17.0
+Tecan.At.XFluor.Core, 1.9.17.0
+Tecan.At.XFluor.Device, 1.9.17.0
+Tecan.At.XFluor.Device.AMR, 1.9.17.0
+Tecan.At.XFluor.Device.AMRPlus, 1.9.17.0
+Tecan.At.XFluor.Device.GeniosUltra, 1.9.17.0
+Tecan.At.XFluor.Device.Reader, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3, 1.9.17.0
+Tecan.At.XFluor.Device.Safire3Pro, 1.9.17.0
+Tecan.At.XFluor.Device.SunriseMini, 1.9.17.0
+Tecan.At.XFluor.ExcelOutput, 1.9.17.0
+Tecan.At.XFluor.NanoQuant, 1.9.17.0
+Tecan.At.XFluor.ReaderEditor, 1.9.17.0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
+ABS, V 1.00 MCR Abs 4 Channel (V 1.00 MCR Abs 4 Channel)
+LUM, V_1.04_11/2011_LUMINESCENCE (Nov 02 2011/17.53.34)
+TCAN, V_1.00_02/2008_S3FTCAN (Feb 21 2008/17.19.16)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="78">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -572,6 +927,54 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>FHCRC\reguia</t>
+  </si>
+  <si>
+    <t>Temperature: 24.7 °C</t>
+  </si>
+  <si>
+    <t>Temperature: 24.5 °C</t>
+  </si>
+  <si>
+    <t>9:46:41 AM</t>
+  </si>
+  <si>
+    <t>5/28/2019 9:47:44 AM</t>
+  </si>
+  <si>
+    <t>5/28/2019 9:48:40 AM</t>
+  </si>
+  <si>
+    <t>9:44:20 AM</t>
+  </si>
+  <si>
+    <t>5/28/2019 9:45:25 AM</t>
+  </si>
+  <si>
+    <t>5/28/2019 9:46:20 AM</t>
+  </si>
+  <si>
+    <t>9:39:39 AM</t>
+  </si>
+  <si>
+    <t>5/28/2019 9:40:42 AM</t>
+  </si>
+  <si>
+    <t>Temperature: 24.2 °C</t>
+  </si>
+  <si>
+    <t>5/28/2019 9:41:38 AM</t>
+  </si>
+  <si>
+    <t>9:41:58 AM</t>
+  </si>
+  <si>
+    <t>5/28/2019 9:43:01 AM</t>
+  </si>
+  <si>
+    <t>5/28/2019 9:43:57 AM</t>
   </si>
 </sst>
 </file>
@@ -751,7 +1154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -786,7 +1189,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1001,9 +1404,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1438,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1051,7 +1454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1059,7 +1462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1067,17 +1470,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1085,12 +1488,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1101,7 +1504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1112,7 +1515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1123,7 +1526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1134,7 +1537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1145,7 +1548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1156,7 +1559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1167,7 +1570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1178,7 +1581,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1189,7 +1592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1200,7 +1603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1208,12 +1611,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1254,12 +1657,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1300,7 +1703,7 @@
         <v>9484</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1341,7 +1744,7 @@
         <v>30334</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -1382,7 +1785,7 @@
         <v>12106</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1423,7 +1826,7 @@
         <v>12339</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -1464,7 +1867,7 @@
         <v>12361</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -1505,12 +1908,12 @@
         <v>29254</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1521,6 +1924,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1532,9 +1940,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1550,7 +1958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1566,7 +1974,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1982,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1582,7 +1990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1590,7 +1998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1598,17 +2006,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1616,12 +2024,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1632,7 +2040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1643,7 +2051,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1654,7 +2062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1665,7 +2073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1676,7 +2084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1687,7 +2095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1698,7 +2106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1709,7 +2117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1720,7 +2128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1731,7 +2139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1739,12 +2147,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1785,12 +2193,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1831,7 +2239,7 @@
         <v>7153</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1872,7 +2280,7 @@
         <v>31159</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -1913,7 +2321,7 @@
         <v>9957</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1954,7 +2362,7 @@
         <v>9982</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -1995,7 +2403,7 @@
         <v>9989</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2036,12 +2444,12 @@
         <v>29110</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2052,6 +2460,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2063,9 +2476,9 @@
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2073,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2081,7 +2494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2089,7 +2502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2097,7 +2510,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2105,7 +2518,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2113,7 +2526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2121,7 +2534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2129,17 +2542,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2147,12 +2560,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2163,7 +2576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2174,7 +2587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2185,7 +2598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2196,7 +2609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2207,7 +2620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2218,7 +2631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2229,7 +2642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2240,7 +2653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2251,7 +2664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2262,7 +2675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2270,12 +2683,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2316,12 +2729,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -2362,7 +2775,7 @@
         <v>6269</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -2403,7 +2816,7 @@
         <v>29688</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -2444,7 +2857,7 @@
         <v>8127</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -2485,7 +2898,7 @@
         <v>8212</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -2526,7 +2939,7 @@
         <v>8315</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -2567,12 +2980,12 @@
         <v>8872</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2583,6 +2996,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2590,13 +3008,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2604,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2612,7 +3030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2620,7 +3038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2628,7 +3046,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2636,7 +3054,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2644,7 +3062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2652,7 +3070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2660,17 +3078,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2678,12 +3096,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2694,7 +3112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2705,7 +3123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2716,7 +3134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2727,7 +3145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2738,7 +3156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2749,7 +3167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2760,7 +3178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2771,7 +3189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2782,7 +3200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2793,7 +3211,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2801,12 +3219,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="B30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -2847,12 +3265,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -2893,7 +3311,7 @@
         <v>7019</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -2934,7 +3352,7 @@
         <v>30397</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -2975,7 +3393,7 @@
         <v>9879</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -3016,7 +3434,7 @@
         <v>9924</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -3057,7 +3475,7 @@
         <v>10110</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -3098,12 +3516,12 @@
         <v>28922</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3114,5 +3532,2442 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>4635</v>
+      </c>
+      <c r="C32">
+        <v>4887</v>
+      </c>
+      <c r="D32">
+        <v>4943</v>
+      </c>
+      <c r="E32">
+        <v>5020</v>
+      </c>
+      <c r="F32">
+        <v>5276</v>
+      </c>
+      <c r="G32">
+        <v>5266</v>
+      </c>
+      <c r="H32">
+        <v>5140</v>
+      </c>
+      <c r="I32">
+        <v>5115</v>
+      </c>
+      <c r="J32">
+        <v>5145</v>
+      </c>
+      <c r="K32">
+        <v>5049</v>
+      </c>
+      <c r="L32">
+        <v>4866</v>
+      </c>
+      <c r="M32">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>8654</v>
+      </c>
+      <c r="C33">
+        <v>8800</v>
+      </c>
+      <c r="D33">
+        <v>8822</v>
+      </c>
+      <c r="E33">
+        <v>8818</v>
+      </c>
+      <c r="F33">
+        <v>8879</v>
+      </c>
+      <c r="G33">
+        <v>9050</v>
+      </c>
+      <c r="H33">
+        <v>8906</v>
+      </c>
+      <c r="I33">
+        <v>8880</v>
+      </c>
+      <c r="J33">
+        <v>8860</v>
+      </c>
+      <c r="K33">
+        <v>8791</v>
+      </c>
+      <c r="L33">
+        <v>8730</v>
+      </c>
+      <c r="M33">
+        <v>8741</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>26365</v>
+      </c>
+      <c r="C34">
+        <v>25834</v>
+      </c>
+      <c r="D34">
+        <v>33785</v>
+      </c>
+      <c r="E34">
+        <v>33422</v>
+      </c>
+      <c r="F34">
+        <v>36845</v>
+      </c>
+      <c r="G34">
+        <v>35475</v>
+      </c>
+      <c r="H34">
+        <v>38544</v>
+      </c>
+      <c r="I34">
+        <v>36361</v>
+      </c>
+      <c r="J34">
+        <v>37352</v>
+      </c>
+      <c r="K34">
+        <v>36428</v>
+      </c>
+      <c r="L34">
+        <v>34144</v>
+      </c>
+      <c r="M34">
+        <v>32242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>25417</v>
+      </c>
+      <c r="C35">
+        <v>26690</v>
+      </c>
+      <c r="D35">
+        <v>32240</v>
+      </c>
+      <c r="E35">
+        <v>31918</v>
+      </c>
+      <c r="F35">
+        <v>35145</v>
+      </c>
+      <c r="G35">
+        <v>35416</v>
+      </c>
+      <c r="H35">
+        <v>33594</v>
+      </c>
+      <c r="I35">
+        <v>20183</v>
+      </c>
+      <c r="J35">
+        <v>9169</v>
+      </c>
+      <c r="K35">
+        <v>8845</v>
+      </c>
+      <c r="L35">
+        <v>9495</v>
+      </c>
+      <c r="M35">
+        <v>11344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>23675</v>
+      </c>
+      <c r="C36">
+        <v>28152</v>
+      </c>
+      <c r="D36">
+        <v>29480</v>
+      </c>
+      <c r="E36">
+        <v>31486</v>
+      </c>
+      <c r="F36">
+        <v>33713</v>
+      </c>
+      <c r="G36">
+        <v>37577</v>
+      </c>
+      <c r="H36">
+        <v>33655</v>
+      </c>
+      <c r="I36">
+        <v>21866</v>
+      </c>
+      <c r="J36">
+        <v>9167</v>
+      </c>
+      <c r="K36">
+        <v>8797</v>
+      </c>
+      <c r="L36">
+        <v>9500</v>
+      </c>
+      <c r="M36">
+        <v>11376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>20703</v>
+      </c>
+      <c r="C37">
+        <v>30829</v>
+      </c>
+      <c r="D37">
+        <v>28023</v>
+      </c>
+      <c r="E37">
+        <v>31370</v>
+      </c>
+      <c r="F37">
+        <v>32769</v>
+      </c>
+      <c r="G37">
+        <v>35804</v>
+      </c>
+      <c r="H37">
+        <v>32421</v>
+      </c>
+      <c r="I37">
+        <v>22840</v>
+      </c>
+      <c r="J37">
+        <v>9188</v>
+      </c>
+      <c r="K37">
+        <v>8759</v>
+      </c>
+      <c r="L37">
+        <v>9624</v>
+      </c>
+      <c r="M37">
+        <v>11301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>21598</v>
+      </c>
+      <c r="C38">
+        <v>28359</v>
+      </c>
+      <c r="D38">
+        <v>28663</v>
+      </c>
+      <c r="E38">
+        <v>33145</v>
+      </c>
+      <c r="F38">
+        <v>33818</v>
+      </c>
+      <c r="G38">
+        <v>35714</v>
+      </c>
+      <c r="H38">
+        <v>36149</v>
+      </c>
+      <c r="I38">
+        <v>36118</v>
+      </c>
+      <c r="J38">
+        <v>34189</v>
+      </c>
+      <c r="K38">
+        <v>33609</v>
+      </c>
+      <c r="L38">
+        <v>32485</v>
+      </c>
+      <c r="M38">
+        <v>31019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>4374</v>
+      </c>
+      <c r="C39">
+        <v>4726</v>
+      </c>
+      <c r="D39">
+        <v>4564</v>
+      </c>
+      <c r="E39">
+        <v>4802</v>
+      </c>
+      <c r="F39">
+        <v>4901</v>
+      </c>
+      <c r="G39">
+        <v>4945</v>
+      </c>
+      <c r="H39">
+        <v>4945</v>
+      </c>
+      <c r="I39">
+        <v>4941</v>
+      </c>
+      <c r="J39">
+        <v>4845</v>
+      </c>
+      <c r="K39">
+        <v>4780</v>
+      </c>
+      <c r="L39">
+        <v>4595</v>
+      </c>
+      <c r="M39">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>5749</v>
+      </c>
+      <c r="C32">
+        <v>5878</v>
+      </c>
+      <c r="D32">
+        <v>6370</v>
+      </c>
+      <c r="E32">
+        <v>6530</v>
+      </c>
+      <c r="F32">
+        <v>6612</v>
+      </c>
+      <c r="G32">
+        <v>6642</v>
+      </c>
+      <c r="H32">
+        <v>6607</v>
+      </c>
+      <c r="I32">
+        <v>6479</v>
+      </c>
+      <c r="J32">
+        <v>6682</v>
+      </c>
+      <c r="K32">
+        <v>6307</v>
+      </c>
+      <c r="L32">
+        <v>6215</v>
+      </c>
+      <c r="M32">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>8496</v>
+      </c>
+      <c r="C33">
+        <v>8530</v>
+      </c>
+      <c r="D33">
+        <v>8656</v>
+      </c>
+      <c r="E33">
+        <v>8823</v>
+      </c>
+      <c r="F33">
+        <v>8979</v>
+      </c>
+      <c r="G33">
+        <v>9186</v>
+      </c>
+      <c r="H33">
+        <v>8993</v>
+      </c>
+      <c r="I33">
+        <v>9097</v>
+      </c>
+      <c r="J33">
+        <v>9040</v>
+      </c>
+      <c r="K33">
+        <v>8906</v>
+      </c>
+      <c r="L33">
+        <v>8597</v>
+      </c>
+      <c r="M33">
+        <v>8613</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>27663</v>
+      </c>
+      <c r="C34">
+        <v>32811</v>
+      </c>
+      <c r="D34">
+        <v>32771</v>
+      </c>
+      <c r="E34">
+        <v>37271</v>
+      </c>
+      <c r="F34">
+        <v>34051</v>
+      </c>
+      <c r="G34">
+        <v>41405</v>
+      </c>
+      <c r="H34">
+        <v>36430</v>
+      </c>
+      <c r="I34">
+        <v>37538</v>
+      </c>
+      <c r="J34">
+        <v>38659</v>
+      </c>
+      <c r="K34">
+        <v>35979</v>
+      </c>
+      <c r="L34">
+        <v>32205</v>
+      </c>
+      <c r="M34">
+        <v>29992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>27332</v>
+      </c>
+      <c r="C35">
+        <v>32082</v>
+      </c>
+      <c r="D35">
+        <v>31234</v>
+      </c>
+      <c r="E35">
+        <v>32460</v>
+      </c>
+      <c r="F35">
+        <v>27037</v>
+      </c>
+      <c r="G35">
+        <v>14683</v>
+      </c>
+      <c r="H35">
+        <v>9429</v>
+      </c>
+      <c r="I35">
+        <v>8714</v>
+      </c>
+      <c r="J35">
+        <v>8587</v>
+      </c>
+      <c r="K35">
+        <v>8825</v>
+      </c>
+      <c r="L35">
+        <v>9798</v>
+      </c>
+      <c r="M35">
+        <v>12083</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>27839</v>
+      </c>
+      <c r="C36">
+        <v>29136</v>
+      </c>
+      <c r="D36">
+        <v>30858</v>
+      </c>
+      <c r="E36">
+        <v>32778</v>
+      </c>
+      <c r="F36">
+        <v>25377</v>
+      </c>
+      <c r="G36">
+        <v>14916</v>
+      </c>
+      <c r="H36">
+        <v>8893</v>
+      </c>
+      <c r="I36">
+        <v>8422</v>
+      </c>
+      <c r="J36">
+        <v>8561</v>
+      </c>
+      <c r="K36">
+        <v>8755</v>
+      </c>
+      <c r="L36">
+        <v>9704</v>
+      </c>
+      <c r="M36">
+        <v>12118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>28682</v>
+      </c>
+      <c r="C37">
+        <v>28330</v>
+      </c>
+      <c r="D37">
+        <v>29169</v>
+      </c>
+      <c r="E37">
+        <v>29753</v>
+      </c>
+      <c r="F37">
+        <v>26417</v>
+      </c>
+      <c r="G37">
+        <v>15198</v>
+      </c>
+      <c r="H37">
+        <v>8929</v>
+      </c>
+      <c r="I37">
+        <v>8407</v>
+      </c>
+      <c r="J37">
+        <v>8395</v>
+      </c>
+      <c r="K37">
+        <v>8717</v>
+      </c>
+      <c r="L37">
+        <v>9623</v>
+      </c>
+      <c r="M37">
+        <v>11958</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>26023</v>
+      </c>
+      <c r="C38">
+        <v>26762</v>
+      </c>
+      <c r="D38">
+        <v>29666</v>
+      </c>
+      <c r="E38">
+        <v>30131</v>
+      </c>
+      <c r="F38">
+        <v>32083</v>
+      </c>
+      <c r="G38">
+        <v>32096</v>
+      </c>
+      <c r="H38">
+        <v>30293</v>
+      </c>
+      <c r="I38">
+        <v>30137</v>
+      </c>
+      <c r="J38">
+        <v>30164</v>
+      </c>
+      <c r="K38">
+        <v>29718</v>
+      </c>
+      <c r="L38">
+        <v>29844</v>
+      </c>
+      <c r="M38">
+        <v>27822</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>5252</v>
+      </c>
+      <c r="C39">
+        <v>5353</v>
+      </c>
+      <c r="D39">
+        <v>5555</v>
+      </c>
+      <c r="E39">
+        <v>5723</v>
+      </c>
+      <c r="F39">
+        <v>5856</v>
+      </c>
+      <c r="G39">
+        <v>5947</v>
+      </c>
+      <c r="H39">
+        <v>5982</v>
+      </c>
+      <c r="I39">
+        <v>5901</v>
+      </c>
+      <c r="J39">
+        <v>5936</v>
+      </c>
+      <c r="K39">
+        <v>5793</v>
+      </c>
+      <c r="L39">
+        <v>5523</v>
+      </c>
+      <c r="M39">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>5197</v>
+      </c>
+      <c r="C32">
+        <v>5343</v>
+      </c>
+      <c r="D32">
+        <v>5749</v>
+      </c>
+      <c r="E32">
+        <v>5871</v>
+      </c>
+      <c r="F32">
+        <v>5914</v>
+      </c>
+      <c r="G32">
+        <v>5972</v>
+      </c>
+      <c r="H32">
+        <v>5919</v>
+      </c>
+      <c r="I32">
+        <v>5753</v>
+      </c>
+      <c r="J32">
+        <v>5917</v>
+      </c>
+      <c r="K32">
+        <v>5590</v>
+      </c>
+      <c r="L32">
+        <v>5478</v>
+      </c>
+      <c r="M32">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>6954</v>
+      </c>
+      <c r="C33">
+        <v>7224</v>
+      </c>
+      <c r="D33">
+        <v>7324</v>
+      </c>
+      <c r="E33">
+        <v>7419</v>
+      </c>
+      <c r="F33">
+        <v>7553</v>
+      </c>
+      <c r="G33">
+        <v>7619</v>
+      </c>
+      <c r="H33">
+        <v>7488</v>
+      </c>
+      <c r="I33">
+        <v>7559</v>
+      </c>
+      <c r="J33">
+        <v>7515</v>
+      </c>
+      <c r="K33">
+        <v>7426</v>
+      </c>
+      <c r="L33">
+        <v>7128</v>
+      </c>
+      <c r="M33">
+        <v>7089</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>27339</v>
+      </c>
+      <c r="C34">
+        <v>30574</v>
+      </c>
+      <c r="D34">
+        <v>31074</v>
+      </c>
+      <c r="E34">
+        <v>34258</v>
+      </c>
+      <c r="F34">
+        <v>32947</v>
+      </c>
+      <c r="G34">
+        <v>36950</v>
+      </c>
+      <c r="H34">
+        <v>34760</v>
+      </c>
+      <c r="I34">
+        <v>36250</v>
+      </c>
+      <c r="J34">
+        <v>34301</v>
+      </c>
+      <c r="K34">
+        <v>33144</v>
+      </c>
+      <c r="L34">
+        <v>32834</v>
+      </c>
+      <c r="M34">
+        <v>28328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>27803</v>
+      </c>
+      <c r="C35">
+        <v>33246</v>
+      </c>
+      <c r="D35">
+        <v>32320</v>
+      </c>
+      <c r="E35">
+        <v>33010</v>
+      </c>
+      <c r="F35">
+        <v>33882</v>
+      </c>
+      <c r="G35">
+        <v>33854</v>
+      </c>
+      <c r="H35">
+        <v>32290</v>
+      </c>
+      <c r="I35">
+        <v>24249</v>
+      </c>
+      <c r="J35">
+        <v>10217</v>
+      </c>
+      <c r="K35">
+        <v>7539</v>
+      </c>
+      <c r="L35">
+        <v>8378</v>
+      </c>
+      <c r="M35">
+        <v>10139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>27031</v>
+      </c>
+      <c r="C36">
+        <v>32405</v>
+      </c>
+      <c r="D36">
+        <v>29855</v>
+      </c>
+      <c r="E36">
+        <v>31269</v>
+      </c>
+      <c r="F36">
+        <v>33020</v>
+      </c>
+      <c r="G36">
+        <v>34344</v>
+      </c>
+      <c r="H36">
+        <v>31223</v>
+      </c>
+      <c r="I36">
+        <v>24298</v>
+      </c>
+      <c r="J36">
+        <v>9451</v>
+      </c>
+      <c r="K36">
+        <v>7509</v>
+      </c>
+      <c r="L36">
+        <v>8228</v>
+      </c>
+      <c r="M36">
+        <v>10199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>28113</v>
+      </c>
+      <c r="C37">
+        <v>33616</v>
+      </c>
+      <c r="D37">
+        <v>28709</v>
+      </c>
+      <c r="E37">
+        <v>32753</v>
+      </c>
+      <c r="F37">
+        <v>32322</v>
+      </c>
+      <c r="G37">
+        <v>31131</v>
+      </c>
+      <c r="H37">
+        <v>32033</v>
+      </c>
+      <c r="I37">
+        <v>23838</v>
+      </c>
+      <c r="J37">
+        <v>9441</v>
+      </c>
+      <c r="K37">
+        <v>7389</v>
+      </c>
+      <c r="L37">
+        <v>8135</v>
+      </c>
+      <c r="M37">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>27901</v>
+      </c>
+      <c r="C38">
+        <v>32304</v>
+      </c>
+      <c r="D38">
+        <v>28557</v>
+      </c>
+      <c r="E38">
+        <v>30383</v>
+      </c>
+      <c r="F38">
+        <v>31116</v>
+      </c>
+      <c r="G38">
+        <v>31593</v>
+      </c>
+      <c r="H38">
+        <v>34116</v>
+      </c>
+      <c r="I38">
+        <v>32091</v>
+      </c>
+      <c r="J38">
+        <v>32421</v>
+      </c>
+      <c r="K38">
+        <v>31547</v>
+      </c>
+      <c r="L38">
+        <v>30575</v>
+      </c>
+      <c r="M38">
+        <v>28159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>4832</v>
+      </c>
+      <c r="C39">
+        <v>5007</v>
+      </c>
+      <c r="D39">
+        <v>5171</v>
+      </c>
+      <c r="E39">
+        <v>5294</v>
+      </c>
+      <c r="F39">
+        <v>5414</v>
+      </c>
+      <c r="G39">
+        <v>5527</v>
+      </c>
+      <c r="H39">
+        <v>5505</v>
+      </c>
+      <c r="I39">
+        <v>5496</v>
+      </c>
+      <c r="J39">
+        <v>5426</v>
+      </c>
+      <c r="K39">
+        <v>5263</v>
+      </c>
+      <c r="L39">
+        <v>5008</v>
+      </c>
+      <c r="M39">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>485</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>515</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>4405</v>
+      </c>
+      <c r="C32">
+        <v>4646</v>
+      </c>
+      <c r="D32">
+        <v>4731</v>
+      </c>
+      <c r="E32">
+        <v>4878</v>
+      </c>
+      <c r="F32">
+        <v>5116</v>
+      </c>
+      <c r="G32">
+        <v>5134</v>
+      </c>
+      <c r="H32">
+        <v>5063</v>
+      </c>
+      <c r="I32">
+        <v>5033</v>
+      </c>
+      <c r="J32">
+        <v>4999</v>
+      </c>
+      <c r="K32">
+        <v>4938</v>
+      </c>
+      <c r="L32">
+        <v>4816</v>
+      </c>
+      <c r="M32">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>6120</v>
+      </c>
+      <c r="C33">
+        <v>6334</v>
+      </c>
+      <c r="D33">
+        <v>6363</v>
+      </c>
+      <c r="E33">
+        <v>6393</v>
+      </c>
+      <c r="F33">
+        <v>6528</v>
+      </c>
+      <c r="G33">
+        <v>6696</v>
+      </c>
+      <c r="H33">
+        <v>6524</v>
+      </c>
+      <c r="I33">
+        <v>6508</v>
+      </c>
+      <c r="J33">
+        <v>6497</v>
+      </c>
+      <c r="K33">
+        <v>6443</v>
+      </c>
+      <c r="L33">
+        <v>6397</v>
+      </c>
+      <c r="M33">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34">
+        <v>24244</v>
+      </c>
+      <c r="C34">
+        <v>27178</v>
+      </c>
+      <c r="D34">
+        <v>29292</v>
+      </c>
+      <c r="E34">
+        <v>33176</v>
+      </c>
+      <c r="F34">
+        <v>34055</v>
+      </c>
+      <c r="G34">
+        <v>30906</v>
+      </c>
+      <c r="H34">
+        <v>33183</v>
+      </c>
+      <c r="I34">
+        <v>35477</v>
+      </c>
+      <c r="J34">
+        <v>33527</v>
+      </c>
+      <c r="K34">
+        <v>31893</v>
+      </c>
+      <c r="L34">
+        <v>31273</v>
+      </c>
+      <c r="M34">
+        <v>27800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>22771</v>
+      </c>
+      <c r="C35">
+        <v>28735</v>
+      </c>
+      <c r="D35">
+        <v>27091</v>
+      </c>
+      <c r="E35">
+        <v>33175</v>
+      </c>
+      <c r="F35">
+        <v>33927</v>
+      </c>
+      <c r="G35">
+        <v>28883</v>
+      </c>
+      <c r="H35">
+        <v>28492</v>
+      </c>
+      <c r="I35">
+        <v>17251</v>
+      </c>
+      <c r="J35">
+        <v>6802</v>
+      </c>
+      <c r="K35">
+        <v>6669</v>
+      </c>
+      <c r="L35">
+        <v>7213</v>
+      </c>
+      <c r="M35">
+        <v>8951</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>23815</v>
+      </c>
+      <c r="C36">
+        <v>31843</v>
+      </c>
+      <c r="D36">
+        <v>29230</v>
+      </c>
+      <c r="E36">
+        <v>31370</v>
+      </c>
+      <c r="F36">
+        <v>34002</v>
+      </c>
+      <c r="G36">
+        <v>26081</v>
+      </c>
+      <c r="H36">
+        <v>24263</v>
+      </c>
+      <c r="I36">
+        <v>17030</v>
+      </c>
+      <c r="J36">
+        <v>7415</v>
+      </c>
+      <c r="K36">
+        <v>6484</v>
+      </c>
+      <c r="L36">
+        <v>7184</v>
+      </c>
+      <c r="M36">
+        <v>8738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>23917</v>
+      </c>
+      <c r="C37">
+        <v>32068</v>
+      </c>
+      <c r="D37">
+        <v>29459</v>
+      </c>
+      <c r="E37">
+        <v>34128</v>
+      </c>
+      <c r="F37">
+        <v>28892</v>
+      </c>
+      <c r="G37">
+        <v>28832</v>
+      </c>
+      <c r="H37">
+        <v>26658</v>
+      </c>
+      <c r="I37">
+        <v>19843</v>
+      </c>
+      <c r="J37">
+        <v>7212</v>
+      </c>
+      <c r="K37">
+        <v>6387</v>
+      </c>
+      <c r="L37">
+        <v>7164</v>
+      </c>
+      <c r="M37">
+        <v>8834</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>22772</v>
+      </c>
+      <c r="C38">
+        <v>31366</v>
+      </c>
+      <c r="D38">
+        <v>28064</v>
+      </c>
+      <c r="E38">
+        <v>32437</v>
+      </c>
+      <c r="F38">
+        <v>30368</v>
+      </c>
+      <c r="G38">
+        <v>28451</v>
+      </c>
+      <c r="H38">
+        <v>30158</v>
+      </c>
+      <c r="I38">
+        <v>33044</v>
+      </c>
+      <c r="J38">
+        <v>32324</v>
+      </c>
+      <c r="K38">
+        <v>31840</v>
+      </c>
+      <c r="L38">
+        <v>28264</v>
+      </c>
+      <c r="M38">
+        <v>25916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>4067</v>
+      </c>
+      <c r="C39">
+        <v>4311</v>
+      </c>
+      <c r="D39">
+        <v>4299</v>
+      </c>
+      <c r="E39">
+        <v>4385</v>
+      </c>
+      <c r="F39">
+        <v>4544</v>
+      </c>
+      <c r="G39">
+        <v>4573</v>
+      </c>
+      <c r="H39">
+        <v>4609</v>
+      </c>
+      <c r="I39">
+        <v>4582</v>
+      </c>
+      <c r="J39">
+        <v>4492</v>
+      </c>
+      <c r="K39">
+        <v>4477</v>
+      </c>
+      <c r="L39">
+        <v>4282</v>
+      </c>
+      <c r="M39">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>